--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140CBB1D-1F71-4703-8B88-F2A5A4D2F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52B368-B048-4B39-A849-1EC70E714465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
-  <si>
-    <t>Instruction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -48,9 +45,6 @@
     <t xml:space="preserve">                          </t>
   </si>
   <si>
-    <t xml:space="preserve">cmp(reg/imm, reg/imm)     </t>
-  </si>
-  <si>
     <t xml:space="preserve">b(address)                </t>
   </si>
   <si>
@@ -72,33 +66,18 @@
     <t>mul(reg, reg/imm, reg/imm)</t>
   </si>
   <si>
-    <t>0000 xxx...xxx</t>
-  </si>
-  <si>
-    <t>0010 a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>no operation</t>
   </si>
   <si>
     <t>stores variable in stack</t>
   </si>
   <si>
-    <t xml:space="preserve">load from memory                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">store to memory                                            </t>
-  </si>
-  <si>
     <t>move immediate</t>
   </si>
   <si>
     <t xml:space="preserve">move register                    </t>
   </si>
   <si>
-    <t xml:space="preserve">compare             </t>
-  </si>
-  <si>
     <t>unconditional branch</t>
   </si>
   <si>
@@ -123,24 +102,6 @@
     <t xml:space="preserve">multiplication      </t>
   </si>
   <si>
-    <t>0011 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>0110 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>1011 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>1100 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>1101 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>0001 a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>var(value, address)</t>
   </si>
   <si>
@@ -150,51 +111,15 @@
     <t>M[b] &lt;- a</t>
   </si>
   <si>
-    <t>0111 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
     <t>GOTO b</t>
   </si>
   <si>
-    <t>1000 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>1001 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>1010 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>Instruction Code (36-bits)</t>
-  </si>
-  <si>
     <t>Extra info</t>
   </si>
   <si>
     <t>bottom 4 bits of operand 'a' is used to select r0-r12</t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldr(reg, address/value in mem)   </t>
-  </si>
-  <si>
-    <t>0100  xxx…xxx a[4] a[3..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>0101 a[15..5] a[4] a[3..0] b[15..0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str(reg/imm, address in mem)   </t>
-  </si>
-  <si>
-    <t>a[4] selects whether we load address/value</t>
-  </si>
-  <si>
-    <t>a[4] selects whether we store reg/imm; can store maximum 11 bit imm defined by a[15..5]</t>
-  </si>
-  <si>
     <t>top 4 bits of operand 'a' is used to select r0-r12</t>
   </si>
   <si>
@@ -216,9 +141,6 @@
     <t>reg(a) &lt;- reg(b)</t>
   </si>
   <si>
-    <t>reg(a) &lt;- M[b] / b</t>
-  </si>
-  <si>
     <t>reg( a[15..12] ) &lt;- a[11..0] + b[11..0]</t>
   </si>
   <si>
@@ -228,7 +150,109 @@
     <t>reg( a[15..12] ) &lt;- a[11..0] * b[11..0]</t>
   </si>
   <si>
-    <t>b - a / reg(b) - reg(a)</t>
+    <t xml:space="preserve">ldra(reg, address)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">load address from memory                                           </t>
+  </si>
+  <si>
+    <t>load value from memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldrv(reg, address)   </t>
+  </si>
+  <si>
+    <t>reg(a) &lt;- M[b]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stri(imm, address in mem)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strr(reg, address in mem)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">store imm to memory                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">store reg to memory                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmp(reg, imm)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmp(reg, reg)     </t>
+  </si>
+  <si>
+    <t>compare reg with reg</t>
+  </si>
+  <si>
+    <t>compare reg with imm</t>
+  </si>
+  <si>
+    <t>b - reg(a)</t>
+  </si>
+  <si>
+    <t>reg(b) - reg(a)</t>
+  </si>
+  <si>
+    <t>sets NZCV flags</t>
+  </si>
+  <si>
+    <t>00000 xxx...xxx</t>
+  </si>
+  <si>
+    <t>00001 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>00010 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>00011 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>00100  a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>00101  a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>00110  a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>00111  a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>01000 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>01001 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>01010 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>01011 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>01100 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>01101 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>01110 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>01111 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>10000 a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>Instruction Code (37-bits)</t>
+  </si>
+  <si>
+    <t>Instruction (17 total)</t>
   </si>
 </sst>
 </file>
@@ -325,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -333,13 +357,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,50 +650,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>47</v>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,16 +703,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,219 +722,323 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52B368-B048-4B39-A849-1EC70E714465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507C982-658A-4AC7-86D5-CADD395215B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -153,12 +153,6 @@
     <t xml:space="preserve">ldra(reg, address)   </t>
   </si>
   <si>
-    <t xml:space="preserve">load address from memory                                           </t>
-  </si>
-  <si>
-    <t>load value from memory</t>
-  </si>
-  <si>
     <t xml:space="preserve">ldrv(reg, address)   </t>
   </si>
   <si>
@@ -177,12 +171,6 @@
     <t xml:space="preserve">store reg to memory                                            </t>
   </si>
   <si>
-    <t xml:space="preserve">cmp(reg, imm)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp(reg, reg)     </t>
-  </si>
-  <si>
     <t>compare reg with reg</t>
   </si>
   <si>
@@ -253,13 +241,28 @@
   </si>
   <si>
     <t>Instruction (17 total)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load address of var from memory                                           </t>
+  </si>
+  <si>
+    <t>load value of var from memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmpi(reg, imm)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmpr(reg, reg)     </t>
+  </si>
+  <si>
+    <t>operands in arithemetic operations limited to 12-bits (4095) defined by [11..0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +272,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -369,7 +381,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,24 +665,24 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -687,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -706,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -725,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -742,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -756,10 +768,10 @@
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -767,27 +779,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -795,13 +807,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
@@ -814,36 +826,36 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="E14" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -851,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -865,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -882,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
@@ -899,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -925,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
@@ -942,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
@@ -956,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
@@ -972,6 +984,9 @@
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507C982-658A-4AC7-86D5-CADD395215B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF45DE-341D-482B-82BF-DED570952A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Description</t>
   </si>
@@ -36,12 +36,6 @@
     <t>nop</t>
   </si>
   <si>
-    <t xml:space="preserve">movi(reg, imm)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">movr(reg, reg)            </t>
-  </si>
-  <si>
     <t xml:space="preserve">                          </t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>stores variable in stack</t>
   </si>
   <si>
-    <t>move immediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move register                    </t>
-  </si>
-  <si>
     <t>unconditional branch</t>
   </si>
   <si>
@@ -117,12 +105,6 @@
     <t>Extra info</t>
   </si>
   <si>
-    <t>bottom 4 bits of operand 'a' is used to select r0-r12</t>
-  </si>
-  <si>
-    <t>top 4 bits of operand 'a' is used to select r0-r12</t>
-  </si>
-  <si>
     <t>Z clear, N and V are the same</t>
   </si>
   <si>
@@ -132,15 +114,9 @@
     <t>Z set</t>
   </si>
   <si>
-    <t>M[b] &lt;- r(a)</t>
-  </si>
-  <si>
     <t>reg(a) &lt;- b</t>
   </si>
   <si>
-    <t>reg(a) &lt;- reg(b)</t>
-  </si>
-  <si>
     <t>reg( a[15..12] ) &lt;- a[11..0] + b[11..0]</t>
   </si>
   <si>
@@ -150,112 +126,142 @@
     <t>reg( a[15..12] ) &lt;- a[11..0] * b[11..0]</t>
   </si>
   <si>
-    <t xml:space="preserve">ldra(reg, address)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldrv(reg, address)   </t>
-  </si>
-  <si>
-    <t>reg(a) &lt;- M[b]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stri(imm, address in mem)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">strr(reg, address in mem)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">store imm to memory                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">store reg to memory                                            </t>
-  </si>
-  <si>
-    <t>compare reg with reg</t>
-  </si>
-  <si>
-    <t>compare reg with imm</t>
-  </si>
-  <si>
     <t>b - reg(a)</t>
   </si>
   <si>
-    <t>reg(b) - reg(a)</t>
-  </si>
-  <si>
-    <t>sets NZCV flags</t>
-  </si>
-  <si>
-    <t>00000 xxx...xxx</t>
-  </si>
-  <si>
-    <t>00001 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>00010 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>00011 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>00100  a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>00101  a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>00110  a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>00111  a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>01000 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>01001 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>01010 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>01011 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>01100 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>01101 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
-    <t>01110 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>01111 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>10000 a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>Instruction Code (37-bits)</t>
-  </si>
-  <si>
-    <t>Instruction (17 total)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load address of var from memory                                           </t>
-  </si>
-  <si>
-    <t>load value of var from memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmpi(reg, imm)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmpr(reg, reg)     </t>
-  </si>
-  <si>
     <t>operands in arithemetic operations limited to 12-bits (4095) defined by [11..0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mov(reg, imm/reg)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldr(reg, address/value)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">str(imm/reg, address in mem)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmp(reg, imm/reg)     </t>
+  </si>
+  <si>
+    <t>compare reg with imm/reg</t>
+  </si>
+  <si>
+    <t>s : selector bits</t>
+  </si>
+  <si>
+    <t>a and b : operand bits</t>
+  </si>
+  <si>
+    <t>s is don't care</t>
+  </si>
+  <si>
+    <t>0000 xxx...xxx</t>
+  </si>
+  <si>
+    <t>0001 xx a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0010 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0100 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>1110 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>1111 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0011 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0101 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0110 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>0111 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>1000 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>1001 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>1010 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>1011 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>1100 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>bottom 4 bits of operand 'a' is used to select r0-r12; s[1] is don't care; s[0] chooses imm/reg</t>
+  </si>
+  <si>
+    <t>s[1] is don't care; s[0] chooses imm/reg</t>
+  </si>
+  <si>
+    <t>s[1] is don't care; s[0] chooses address/value</t>
+  </si>
+  <si>
+    <t>sets NZCV flags; s[1] is don't care; s[0] chooses imm/reg</t>
+  </si>
+  <si>
+    <t>top 4 bits of operand 'a' is used to select r0-r12; s[1..0] chooses between imm/reg for both operands</t>
+  </si>
+  <si>
+    <t>Instruction Code (38-bits)</t>
+  </si>
+  <si>
+    <t>or(reg, reg/imm, reg/imm)</t>
+  </si>
+  <si>
+    <t>1101 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>and(reg, reg/imm, reg/imm)</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] &amp; b[11..0]</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] | b[11..0]</t>
+  </si>
+  <si>
+    <t>mvn(reg, reg/imm)</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- ! b[11..0]</t>
+  </si>
+  <si>
+    <t>logical and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logical or      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moving logical not      </t>
+  </si>
+  <si>
+    <t>Instruction (15 total)</t>
+  </si>
+  <si>
+    <t>move imm/reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load address/value of var from mem                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">store imm/reg to memory                                            </t>
+  </si>
+  <si>
+    <t>N.B. for one operand instructions (most), a is used to select the destination register; that's it!</t>
   </si>
 </sst>
 </file>
@@ -361,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -377,9 +383,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -665,24 +668,24 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -691,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,13 +702,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,16 +718,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,280 +740,278 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEF45DE-341D-482B-82BF-DED570952A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AE1B4-9C26-4E45-8907-66D9DED17C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -63,9 +63,6 @@
     <t>no operation</t>
   </si>
   <si>
-    <t>stores variable in stack</t>
-  </si>
-  <si>
     <t>unconditional branch</t>
   </si>
   <si>
@@ -90,15 +87,9 @@
     <t xml:space="preserve">multiplication      </t>
   </si>
   <si>
-    <t>var(value, address)</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>M[b] &lt;- a</t>
-  </si>
-  <si>
     <t>GOTO b</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Z set</t>
   </si>
   <si>
-    <t>reg(a) &lt;- b</t>
-  </si>
-  <si>
     <t>reg( a[15..12] ) &lt;- a[11..0] + b[11..0]</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>reg( a[15..12] ) &lt;- a[11..0] * b[11..0]</t>
   </si>
   <si>
-    <t>b - reg(a)</t>
-  </si>
-  <si>
     <t>operands in arithemetic operations limited to 12-bits (4095) defined by [11..0]</t>
   </si>
   <si>
@@ -153,15 +138,9 @@
     <t>a and b : operand bits</t>
   </si>
   <si>
-    <t>s is don't care</t>
-  </si>
-  <si>
     <t>0000 xxx...xxx</t>
   </si>
   <si>
-    <t>0001 xx a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>0010 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
@@ -262,6 +241,30 @@
   </si>
   <si>
     <t>N.B. for one operand instructions (most), a is used to select the destination register; that's it!</t>
+  </si>
+  <si>
+    <t>reg(a) &lt;- b / reg(b)</t>
+  </si>
+  <si>
+    <t>reg(a) &lt;- b / M[b]</t>
+  </si>
+  <si>
+    <t>0001 xxx...xxx</t>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>reset CPU</t>
+  </si>
+  <si>
+    <t>assert rst line</t>
+  </si>
+  <si>
+    <t>M[b] &lt;- a / reg(a)</t>
+  </si>
+  <si>
+    <t>b - a / reg(a)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -385,6 +388,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +674,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -694,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,274 +708,266 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,19 +975,19 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" s="9"/>
     </row>
@@ -998,7 +996,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B28" s="9"/>
     </row>

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AE1B4-9C26-4E45-8907-66D9DED17C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04C57E-2595-4C49-8DEB-D348625D8870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -156,9 +156,6 @@
     <t>0011 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
-    <t>0101 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>0110 xxx...xxx b[15..0]</t>
   </si>
   <si>
@@ -168,21 +165,12 @@
     <t>1000 xxx...xxx b[15..0]</t>
   </si>
   <si>
-    <t>1001 xxx...xxx b[15..0]</t>
-  </si>
-  <si>
     <t>1010 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
     <t>1011 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
-    <t>1100 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>bottom 4 bits of operand 'a' is used to select r0-r12; s[1] is don't care; s[0] chooses imm/reg</t>
-  </si>
-  <si>
     <t>s[1] is don't care; s[0] chooses imm/reg</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>sets NZCV flags; s[1] is don't care; s[0] chooses imm/reg</t>
   </si>
   <si>
-    <t>top 4 bits of operand 'a' is used to select r0-r12; s[1..0] chooses between imm/reg for both operands</t>
-  </si>
-  <si>
     <t>Instruction Code (38-bits)</t>
   </si>
   <si>
@@ -243,28 +228,46 @@
     <t>N.B. for one operand instructions (most), a is used to select the destination register; that's it!</t>
   </si>
   <si>
-    <t>reg(a) &lt;- b / reg(b)</t>
-  </si>
-  <si>
-    <t>reg(a) &lt;- b / M[b]</t>
-  </si>
-  <si>
-    <t>0001 xxx...xxx</t>
-  </si>
-  <si>
-    <t>rst</t>
-  </si>
-  <si>
-    <t>reset CPU</t>
-  </si>
-  <si>
-    <t>assert rst line</t>
-  </si>
-  <si>
-    <t>M[b] &lt;- a / reg(a)</t>
-  </si>
-  <si>
-    <t>b - a / reg(a)</t>
+    <t>lsr(reg, imm)</t>
+  </si>
+  <si>
+    <t>0001 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0101 xxx...xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>1001 s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>1100 xx a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>logical shift to right (div by 2^n)</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- reg( a[15..12] ) &gt;&gt; b</t>
+  </si>
+  <si>
+    <t>s is don't care</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- b / reg(b)</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- b / M[b]</t>
+  </si>
+  <si>
+    <t>M[b] &lt;- a / reg( a[15..12] )</t>
+  </si>
+  <si>
+    <t>b - a / reg( a[15..12] )</t>
+  </si>
+  <si>
+    <t>top 4 bits of operands 'a' and 'b' is used to select r0-r12; s[1..0] chooses between imm/reg for both operands</t>
+  </si>
+  <si>
+    <t>top 4 bits of operands 'a' and 'b' is used to select r0-r12; s[1] is don't care; s[0] chooses imm/reg</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -388,9 +391,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,16 +682,16 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -718,298 +718,301 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3"/>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04C57E-2595-4C49-8DEB-D348625D8870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26460626-0AEC-47B6-A7E0-63683602DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Description</t>
   </si>
@@ -105,15 +105,6 @@
     <t>Z set</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] + b[11..0]</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] - b[11..0]</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] * b[11..0]</t>
-  </si>
-  <si>
     <t>operands in arithemetic operations limited to 12-bits (4095) defined by [11..0]</t>
   </si>
   <si>
@@ -141,21 +132,9 @@
     <t>0000 xxx...xxx</t>
   </si>
   <si>
-    <t>0010 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>0100 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>1110 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
-    <t>1111 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
-    <t>0011 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>0110 xxx...xxx b[15..0]</t>
   </si>
   <si>
@@ -192,12 +171,6 @@
     <t>and(reg, reg/imm, reg/imm)</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] &amp; b[11..0]</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] | b[11..0]</t>
-  </si>
-  <si>
     <t>mvn(reg, reg/imm)</t>
   </si>
   <si>
@@ -231,18 +204,12 @@
     <t>lsr(reg, imm)</t>
   </si>
   <si>
-    <t>0001 s[1..0] a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>0101 xxx...xxx b[15..0]</t>
   </si>
   <si>
     <t>1001 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
-    <t>1100 xx a[15..0] b[15..0]</t>
-  </si>
-  <si>
     <t>logical shift to right (div by 2^n)</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
     <t>s is don't care</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- b / reg(b)</t>
-  </si>
-  <si>
     <t>reg( a[15..12] ) &lt;- b / M[b]</t>
   </si>
   <si>
@@ -268,13 +232,97 @@
   </si>
   <si>
     <t>top 4 bits of operands 'a' and 'b' is used to select r0-r12; s[1] is don't care; s[0] chooses imm/reg</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- b / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) + b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) - b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) * b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) &amp; b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) | b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>Generally, the word structure is: OPCODE s[1..0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>0001 x s[0] a[15..12] xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>0010 x s[0] a[15..12] xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>0011 x s[0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>1100 xx a[15..12] xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>1111 x s[0] a[15..12] xxx b[15..0]</t>
+  </si>
+  <si>
+    <t>regx[N..N-3]</t>
+  </si>
+  <si>
+    <t>Register Represented</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>r9</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
+    <t>0100 1 s[0] a[15..0] b[15..0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +343,20 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -391,6 +453,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,24 +746,24 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -708,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -724,53 +796,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,19 +852,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -814,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -831,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -848,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -874,16 +946,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,13 +963,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,105 +977,108 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,51 +1088,122 @@
       <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>0</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>1</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>3</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>4</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>5</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>6</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>7</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>8</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>9</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>10</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>11</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>12</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\Work\GitHub Repos\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\github\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26460626-0AEC-47B6-A7E0-63683602DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CE8AA6-AE01-4E53-95CE-6BD279DD16DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,15 +51,6 @@
     <t xml:space="preserve">beq(address)              </t>
   </si>
   <si>
-    <t>add(reg, reg/imm, reg/imm)</t>
-  </si>
-  <si>
-    <t>sub(reg, reg/imm, reg/imm)</t>
-  </si>
-  <si>
-    <t>mul(reg, reg/imm, reg/imm)</t>
-  </si>
-  <si>
     <t>no operation</t>
   </si>
   <si>
@@ -162,18 +153,9 @@
     <t>Instruction Code (38-bits)</t>
   </si>
   <si>
-    <t>or(reg, reg/imm, reg/imm)</t>
-  </si>
-  <si>
     <t>1101 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
-    <t>and(reg, reg/imm, reg/imm)</t>
-  </si>
-  <si>
-    <t>mvn(reg, reg/imm)</t>
-  </si>
-  <si>
     <t>reg( a[15..12] ) &lt;- ! b[11..0]</t>
   </si>
   <si>
@@ -225,9 +207,6 @@
     <t>M[b] &lt;- a / reg( a[15..12] )</t>
   </si>
   <si>
-    <t>b - a / reg( a[15..12] )</t>
-  </si>
-  <si>
     <t>top 4 bits of operands 'a' and 'b' is used to select r0-r12; s[1..0] chooses between imm/reg for both operands</t>
   </si>
   <si>
@@ -316,6 +295,27 @@
   </si>
   <si>
     <t>0100 1 s[0] a[15..0] b[15..0]</t>
+  </si>
+  <si>
+    <t>a / reg( a[15..12] ) - b</t>
+  </si>
+  <si>
+    <t>add(reg, imm/reg, imm/reg)</t>
+  </si>
+  <si>
+    <t>sub(reg, imm/reg, imm/reg)</t>
+  </si>
+  <si>
+    <t>mul(reg, imm/reg, imm/reg)</t>
+  </si>
+  <si>
+    <t>and(reg, imm/reg, imm/reg)</t>
+  </si>
+  <si>
+    <t>or(reg, imm/reg, imm/reg)</t>
+  </si>
+  <si>
+    <t>mvn(reg, imm/reg)</t>
   </si>
 </sst>
 </file>
@@ -746,24 +746,24 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.59765625" customWidth="1"/>
+    <col min="4" max="4" width="60.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -772,434 +772,434 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="14">
         <v>1</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="14">
         <v>2</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="14">
         <v>3</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="14">
         <v>4</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="14">
         <v>5</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="14">
         <v>6</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="14">
         <v>7</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="14">
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="14">
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="14">
         <v>10</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="14">
         <v>11</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="14">
         <v>12</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B46" s="9"/>
     </row>
   </sheetData>

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\github\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CE8AA6-AE01-4E53-95CE-6BD279DD16DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8467E2D1-2A3A-4A03-801F-3C11E888A937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,21 +216,6 @@
     <t>reg( a[15..12] ) &lt;- b / reg( b[15..12] )</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) + b[11..0] / reg( b[11..8] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) - b[11..0] / reg( b[11..8] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) * b[11..0] / reg( b[11..8] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) &amp; b[11..0] / reg( b[11..8] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) | b[11..0] / reg( b[11..8] )</t>
-  </si>
-  <si>
     <t>Generally, the word structure is: OPCODE s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
@@ -316,6 +301,21 @@
   </si>
   <si>
     <t>mvn(reg, imm/reg)</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) + b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) - b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) * b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) &amp; b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) | b[11..0] / reg( b[15..12] )</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>50</v>
@@ -855,13 +855,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>54</v>
@@ -952,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>36</v>
@@ -969,12 +969,12 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>37</v>
@@ -983,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -991,7 +991,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>55</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -1014,12 +1014,12 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>32</v>
@@ -1028,15 +1028,15 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>46</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9"/>
     </row>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -1132,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1156,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -1172,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -1196,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\github\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8467E2D1-2A3A-4A03-801F-3C11E888A937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E041F-C817-4C93-A9B3-96F402FDC2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t xml:space="preserve">ldr(reg, address/value)   </t>
   </si>
   <si>
-    <t xml:space="preserve">str(imm/reg, address in mem)   </t>
-  </si>
-  <si>
     <t xml:space="preserve">cmp(reg, imm/reg)     </t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>1101 s[1..0] a[15..0] b[15..0]</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- ! b[11..0]</t>
-  </si>
-  <si>
     <t>logical and</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>logical shift to right (div by 2^n)</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- reg( a[15..12] ) &gt;&gt; b</t>
-  </si>
-  <si>
     <t>s is don't care</t>
   </si>
   <si>
@@ -303,19 +294,28 @@
     <t>mvn(reg, imm/reg)</t>
   </si>
   <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) + b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) - b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) * b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) &amp; b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[15..12] ) | b[11..0] / reg( b[15..12] )</t>
+    <t xml:space="preserve">str(reg/imm, address in mem)   </t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) + b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) - b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) * b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- reg( a[15..12] ) &gt;&gt; b</t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) &amp; b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) | b[11..0] / reg( b[15..12] )</t>
+  </si>
+  <si>
+    <t>reg( a[11..8] ) &lt;- ! b[11..0]</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -760,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -799,16 +799,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -816,33 +816,33 @@
         <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -852,19 +852,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -943,111 +943,111 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="9"/>
     </row>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9"/>
     </row>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="9"/>
     </row>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -1132,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1156,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -1172,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -1196,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">

--- a/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
+++ b/Firmware/CPU Designs/Complex CPU/ISA and Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Desktop\github\PROJ300\Firmware\CPU Designs\Complex CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E041F-C817-4C93-A9B3-96F402FDC2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E3DBEA-8A7C-47BD-A1C2-9B86D45D60D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,25 +297,25 @@
     <t xml:space="preserve">str(reg/imm, address in mem)   </t>
   </si>
   <si>
-    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) + b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) - b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) * b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[11..8] ) &lt;- reg( a[15..12] ) &gt;&gt; b</t>
-  </si>
-  <si>
-    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) &amp; b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[11..8] ) &lt;- a[11..0] / reg( a[15..12] ) | b[11..0] / reg( b[15..12] )</t>
-  </si>
-  <si>
-    <t>reg( a[11..8] ) &lt;- ! b[11..0]</t>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) + b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) - b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) * b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- reg( a[11..8] ) &gt;&gt; b</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) | b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- a[11..0] / reg( a[11..8] ) &amp; b[11..0] / reg( b[11..8] )</t>
+  </si>
+  <si>
+    <t>reg( a[15..12] ) &lt;- ! b[11..0] / !reg( b[15..12] )</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1014,7 +1014,7 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1028,7 +1028,7 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
